--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5D0911-3BA4-4186-A944-7B3F13A757DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5083FC8-1DF6-4BC3-AFF3-5352CD1739F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{1AA621B2-5358-447B-B799-56B5AD433A1B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F023756-CB96-409B-9F25-DAF0223B656F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 19/11/2021), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F662B-F7D8-4530-9982-582D46F6384D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55489D-4829-4921-8A8B-DCFB4B566F8D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4658,11 +4658,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{859B3EB7-F47B-499C-B789-114867B1CF29}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F988578B-515D-467B-9AC4-1FB1BFBE2260}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5EA772F0-8EF6-4404-879E-C3D45149B365}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{35D1F67C-1042-41F4-AFE7-794BAC04DD8F}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{A3414CB5-4534-4035-8565-EA963AA76354}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{28C1EBBF-57C6-4C86-A939-8ADBBB990D7F}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D567B035-F020-450F-9895-3777817DE509}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C007A09A-E6F7-40A5-B673-02A3E27B6F15}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{60432C25-FC3C-40AA-8009-16D25115B88A}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{B76FE965-5A17-45D7-8F93-E5CBA8DDCEC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5083FC8-1DF6-4BC3-AFF3-5352CD1739F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34769D4-38BA-4CE7-BF99-F51A8A9ACFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F023756-CB96-409B-9F25-DAF0223B656F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8985B3DF-3AA5-407D-BC29-A8F5A87BDCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab11'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab11'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
   <si>
     <t>Table 11: Communications infrastructure</t>
   </si>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -540,7 +540,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 19/11/2021), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
+    <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 28/05/2023), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E55489D-4829-4921-8A8B-DCFB4B566F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487AD7DE-FF7B-410F-87CA-2D3662CC60C1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1397,19 +1397,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="10">
-        <v>0.355605</v>
+        <v>0.68683038771185001</v>
       </c>
       <c r="D3" s="10">
-        <v>14.3391</v>
+        <v>32.129391969865502</v>
       </c>
       <c r="E3" s="10">
-        <v>46.598599999999998</v>
+        <v>45.837741396719302</v>
       </c>
       <c r="F3" s="10">
-        <v>0.39190799999999998</v>
+        <v>0.38550901989602998</v>
       </c>
       <c r="G3" s="11">
-        <v>21.179400000000001</v>
+        <v>20.8336027521893</v>
       </c>
       <c r="H3" s="12">
         <v>43864</v>
@@ -1429,22 +1429,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="14">
-        <v>1.7765200000000001</v>
+        <v>10.191831454735</v>
       </c>
       <c r="D4" s="14">
-        <v>47</v>
+        <v>64.826325416798795</v>
       </c>
       <c r="E4" s="14">
-        <v>162.64099999999999</v>
+        <v>149.88826668138799</v>
       </c>
       <c r="F4" s="14">
-        <v>6.1894900000000002</v>
+        <v>5.7041599358643502</v>
       </c>
       <c r="G4" s="15">
-        <v>88.438699999999997</v>
-      </c>
-      <c r="H4" s="16">
-        <v>11760</v>
+        <v>81.504075285774107</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="14">
         <v>80.17</v>
@@ -1461,19 +1461,19 @@
         <v>17</v>
       </c>
       <c r="C5" s="18">
-        <v>0.71123400000000003</v>
+        <v>2.3134615954703102</v>
       </c>
       <c r="D5" s="18">
-        <v>47</v>
+        <v>54.0343671991238</v>
       </c>
       <c r="E5" s="18">
-        <v>93.527299999999997</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>13</v>
+        <v>91.850723273424606</v>
+      </c>
+      <c r="F5" s="18">
+        <v>3.6342790307563302</v>
+      </c>
+      <c r="G5" s="19">
+        <v>69.455965349222396</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>13</v>
@@ -1493,22 +1493,22 @@
         <v>19</v>
       </c>
       <c r="C6" s="18">
-        <v>0.273345</v>
+        <v>0.22447983674194</v>
       </c>
       <c r="D6" s="18">
-        <v>29</v>
+        <v>42.301733569272997</v>
       </c>
       <c r="E6" s="18">
-        <v>74.493799999999993</v>
+        <v>75.555173154357604</v>
       </c>
       <c r="F6" s="18">
-        <v>0.63173199999999996</v>
+        <v>0.58179396882421996</v>
       </c>
       <c r="G6" s="19">
-        <v>64.047600000000003</v>
+        <v>59.0681052539828</v>
       </c>
       <c r="H6" s="20">
-        <v>5484</v>
+        <v>5440</v>
       </c>
       <c r="I6" s="18">
         <v>75</v>
@@ -1525,19 +1525,19 @@
         <v>21</v>
       </c>
       <c r="C7" s="18">
-        <v>6.2684599999999993E-2</v>
+        <v>6.3244885279560001E-2</v>
       </c>
       <c r="D7" s="18">
-        <v>13.7822</v>
+        <v>13.4391998497708</v>
       </c>
       <c r="E7" s="18">
-        <v>47.781100000000002</v>
+        <v>47.176912141867199</v>
       </c>
       <c r="F7" s="18">
-        <v>7.0326799999999995E-2</v>
+        <v>6.9437462213139997E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>31.8459</v>
+        <v>31.4744258821475</v>
       </c>
       <c r="H7" s="20">
         <v>9614</v>
@@ -1557,19 +1557,19 @@
         <v>23</v>
       </c>
       <c r="C8" s="18">
-        <v>0.23725199999999999</v>
+        <v>0.22451556677078999</v>
       </c>
       <c r="D8" s="18">
-        <v>10</v>
+        <v>14.638552675214999</v>
       </c>
       <c r="E8" s="18">
-        <v>48.6509</v>
+        <v>48.780167601131801</v>
       </c>
       <c r="F8" s="18">
-        <v>0.26605699999999999</v>
+        <v>0.26676378654604999</v>
       </c>
       <c r="G8" s="19">
-        <v>17.669699999999999</v>
+        <v>17.7166273272822</v>
       </c>
       <c r="H8" s="20">
         <v>78503</v>
@@ -1589,19 +1589,19 @@
         <v>25</v>
       </c>
       <c r="C9" s="18">
-        <v>2.5310600000000001</v>
+        <v>3.1649215900699801</v>
       </c>
       <c r="D9" s="18">
-        <v>51</v>
+        <v>44.826814804235497</v>
       </c>
       <c r="E9" s="18">
-        <v>113.194</v>
+        <v>115.409311693896</v>
       </c>
       <c r="F9" s="18">
-        <v>5.6001700000000003</v>
+        <v>5.7208159421640401</v>
       </c>
       <c r="G9" s="19">
-        <v>66.215800000000002</v>
+        <v>67.5408845749525</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>13</v>
@@ -1621,22 +1621,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="18">
-        <v>2.3996900000000001</v>
+        <v>2.21601074767517</v>
       </c>
       <c r="D10" s="18">
-        <v>56.167400000000001</v>
+        <v>69.696875076026799</v>
       </c>
       <c r="E10" s="18">
-        <v>165.6</v>
+        <v>166.94332153695899</v>
       </c>
       <c r="F10" s="18">
-        <v>3.45763</v>
+        <v>3.4856819647682298</v>
       </c>
       <c r="G10" s="19">
-        <v>102.22</v>
+        <v>103.04961062322801</v>
       </c>
       <c r="H10" s="20">
-        <v>351259</v>
+        <v>1178700</v>
       </c>
       <c r="I10" s="18">
         <v>95</v>
@@ -1653,19 +1653,19 @@
         <v>29</v>
       </c>
       <c r="C11" s="14">
-        <v>0.249918</v>
+        <v>0.43490194141236999</v>
       </c>
       <c r="D11" s="14">
-        <v>27.852599999999999</v>
+        <v>16.8</v>
       </c>
       <c r="E11" s="14">
-        <v>96.414400000000001</v>
+        <v>93.689663222559503</v>
       </c>
       <c r="F11" s="14">
-        <v>0.54150900000000002</v>
+        <v>0.52620505985780996</v>
       </c>
       <c r="G11" s="15">
-        <v>51.071599999999997</v>
+        <v>49.6282876663103</v>
       </c>
       <c r="H11" s="16">
         <v>52081</v>
@@ -1685,19 +1685,19 @@
         <v>31</v>
       </c>
       <c r="C12" s="18">
-        <v>1.40632</v>
+        <v>1.2984386521065601</v>
       </c>
       <c r="D12" s="18">
-        <v>27.055499999999999</v>
+        <v>26.588274073439699</v>
       </c>
       <c r="E12" s="18">
-        <v>90.1023</v>
+        <v>85.940989180576906</v>
       </c>
       <c r="F12" s="18">
-        <v>1.8144499999999999</v>
+        <v>1.73064659156391</v>
       </c>
       <c r="G12" s="19">
-        <v>51.6875</v>
+        <v>49.300346840505497</v>
       </c>
       <c r="H12" s="20">
         <v>116927</v>
@@ -1717,22 +1717,22 @@
         <v>33</v>
       </c>
       <c r="C13" s="23">
-        <v>1.079625825295</v>
+        <v>1.2221270288873201</v>
       </c>
       <c r="D13" s="23">
-        <v>30.7070642878063</v>
+        <v>38.151543532193998</v>
       </c>
       <c r="E13" s="23">
-        <v>96.967358477121294</v>
+        <v>96.449358395750394</v>
       </c>
       <c r="F13" s="23">
-        <v>1.6138477427629701</v>
+        <v>1.6204143768755701</v>
       </c>
       <c r="G13" s="24">
-        <v>55.494865292927301</v>
+        <v>55.2713037810949</v>
       </c>
       <c r="H13" s="25">
-        <v>152627.25705615501</v>
+        <v>428414.418126893</v>
       </c>
       <c r="I13" s="23">
         <v>64.960921736152997</v>
@@ -1749,19 +1749,19 @@
         <v>35</v>
       </c>
       <c r="C14" s="18">
-        <v>3.5211300000000001E-2</v>
+        <v>3.46147444409E-2</v>
       </c>
       <c r="D14" s="18">
-        <v>2.6607500000000002</v>
+        <v>2.73144338771526</v>
       </c>
       <c r="E14" s="18">
-        <v>56.649700000000003</v>
+        <v>55.007394627194103</v>
       </c>
       <c r="F14" s="18">
-        <v>0.18156900000000001</v>
+        <v>0.17630556307379</v>
       </c>
       <c r="G14" s="19">
-        <v>11.1435</v>
+        <v>10.8204170869531</v>
       </c>
       <c r="H14" s="20">
         <v>6163</v>
@@ -1781,22 +1781,22 @@
         <v>37</v>
       </c>
       <c r="C15" s="18">
-        <v>7.4436100000000005E-2</v>
+        <v>2.7276306177998699</v>
       </c>
       <c r="D15" s="18">
-        <v>23.202999999999999</v>
+        <v>36.539182395538603</v>
       </c>
       <c r="E15" s="18">
-        <v>82.703699999999998</v>
+        <v>83.005402806517793</v>
       </c>
       <c r="F15" s="18">
-        <v>3.3096199999999998</v>
+        <v>3.3216960399367901</v>
       </c>
       <c r="G15" s="19">
-        <v>14.6295</v>
+        <v>18.737697247895401</v>
       </c>
       <c r="H15" s="20">
-        <v>20280</v>
+        <v>20333</v>
       </c>
       <c r="I15" s="18">
         <v>75</v>
@@ -1812,20 +1812,20 @@
       <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="18">
-        <v>1.30294E-2</v>
+      <c r="C16" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="18">
-        <v>4.3392499999999998</v>
+        <v>7.50916144864809</v>
       </c>
       <c r="E16" s="18">
-        <v>33.619199999999999</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>13</v>
+        <v>30.623819904463598</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3.8392697401809998E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>5.0293099999999997</v>
+        <v>4.5812086174712903</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>13</v>
@@ -1844,23 +1844,23 @@
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="27">
-        <v>1.2534099999999999E-3</v>
+      <c r="C17" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="27">
-        <v>6.5</v>
+        <v>8.3641712846982195</v>
       </c>
       <c r="E17" s="27">
-        <v>48.064799999999998</v>
+        <v>47.528385242365097</v>
       </c>
       <c r="F17" s="27">
-        <v>4.0910799999999997E-2</v>
+        <v>4.0454233327169999E-2</v>
       </c>
       <c r="G17" s="28">
-        <v>2.9837699999999998</v>
+        <v>2.9504678714388799</v>
       </c>
       <c r="H17" s="29">
-        <v>18909</v>
+        <v>11752</v>
       </c>
       <c r="I17" s="27">
         <v>30</v>
@@ -1876,17 +1876,17 @@
       <c r="B18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="27">
-        <v>1.05553E-2</v>
-      </c>
-      <c r="D18" s="27">
-        <v>8.65</v>
+      <c r="C18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="27">
-        <v>98.9298</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>13</v>
+        <v>91.816228100723606</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.30516635874782999</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>13</v>
@@ -1909,19 +1909,19 @@
         <v>45</v>
       </c>
       <c r="C19" s="14">
-        <v>5.4955500000000001E-3</v>
+        <v>3.3386045950999997E-2</v>
       </c>
       <c r="D19" s="14">
-        <v>8.6198999999999995</v>
+        <v>16.4811891095164</v>
       </c>
       <c r="E19" s="14">
-        <v>42.773299999999999</v>
+        <v>41.290726439319599</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="15">
-        <v>19.529800000000002</v>
+        <v>18.852860998751002</v>
       </c>
       <c r="H19" s="16">
         <v>32920</v>
@@ -1941,19 +1941,19 @@
         <v>47</v>
       </c>
       <c r="C20" s="27">
-        <v>0.123761</v>
+        <v>6.265471799425E-2</v>
       </c>
       <c r="D20" s="27">
-        <v>26.24</v>
+        <v>49.1336630231973</v>
       </c>
       <c r="E20" s="27">
-        <v>44.8583</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>13</v>
+        <v>39.728762658311403</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.70829236505904003</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.51512172004293999</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>13</v>
@@ -1973,19 +1973,19 @@
         <v>49</v>
       </c>
       <c r="C21" s="27">
-        <v>1.3730599999999999</v>
+        <v>1.9457177590419199</v>
       </c>
       <c r="D21" s="27">
-        <v>62</v>
+        <v>68.685502992311299</v>
       </c>
       <c r="E21" s="27">
-        <v>137.75399999999999</v>
+        <v>133.44166585666201</v>
       </c>
       <c r="F21" s="27">
-        <v>1.0260199999999999</v>
+        <v>0.9938977682222</v>
       </c>
       <c r="G21" s="28">
-        <v>94.3001</v>
+        <v>91.348216013476105</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>13</v>
@@ -2005,19 +2005,19 @@
         <v>51</v>
       </c>
       <c r="C22" s="18">
-        <v>0.73781699999999995</v>
+        <v>1.1489153452463201</v>
       </c>
       <c r="D22" s="18">
-        <v>29.9312</v>
+        <v>30.231615445368</v>
       </c>
       <c r="E22" s="18">
-        <v>77.078100000000006</v>
+        <v>77.242205229288103</v>
       </c>
       <c r="F22" s="18">
-        <v>2.2245400000000002</v>
+        <v>2.22927413454862</v>
       </c>
       <c r="G22" s="19">
-        <v>34.343600000000002</v>
+        <v>34.416749379074503</v>
       </c>
       <c r="H22" s="20">
         <v>2317</v>
@@ -2037,22 +2037,22 @@
         <v>52</v>
       </c>
       <c r="C23" s="23">
-        <v>4.0216391916450003E-2</v>
+        <v>0.59402790883348</v>
       </c>
       <c r="D23" s="23">
-        <v>11.1473993005268</v>
+        <v>18.7502916306929</v>
       </c>
       <c r="E23" s="23">
-        <v>53.931592347181201</v>
+        <v>52.502388497850703</v>
       </c>
       <c r="F23" s="23">
-        <v>1.61667554011295</v>
+        <v>1.37215111555215</v>
       </c>
       <c r="G23" s="24">
-        <v>16.904047513984601</v>
+        <v>16.945197580221201</v>
       </c>
       <c r="H23" s="25">
-        <v>26831.6676129425</v>
+        <v>26039.1093789486</v>
       </c>
       <c r="I23" s="23">
         <v>38.4420105179953</v>
@@ -2069,19 +2069,19 @@
         <v>54</v>
       </c>
       <c r="C24" s="18">
-        <v>0.183943</v>
+        <v>0.14736419050171001</v>
       </c>
       <c r="D24" s="18">
-        <v>8.4781700000000004</v>
+        <v>16.383751222402299</v>
       </c>
       <c r="E24" s="18">
-        <v>67.602199999999996</v>
+        <v>72.721641090992804</v>
       </c>
       <c r="F24" s="18">
-        <v>1.18018</v>
+        <v>1.26955470766866</v>
       </c>
       <c r="G24" s="19">
-        <v>9.4644899999999996</v>
+        <v>72.585481917505504</v>
       </c>
       <c r="H24" s="20">
         <v>4600</v>
@@ -2101,19 +2101,19 @@
         <v>56</v>
       </c>
       <c r="C25" s="18">
-        <v>2.6600700000000002</v>
+        <v>2.29811146294659</v>
       </c>
       <c r="D25" s="18">
-        <v>55.681399999999996</v>
+        <v>59.3419660483464</v>
       </c>
       <c r="E25" s="18">
-        <v>42.510599999999997</v>
+        <v>38.5352245915713</v>
       </c>
       <c r="F25" s="18">
-        <v>3.81148</v>
+        <v>3.4550472349007499</v>
       </c>
       <c r="G25" s="19">
-        <v>23.624600000000001</v>
+        <v>21.4153896576703</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>13</v>
@@ -2133,16 +2133,16 @@
         <v>58</v>
       </c>
       <c r="C26" s="18">
-        <v>2.9300699999999999E-2</v>
+        <v>0.14061264366394</v>
       </c>
       <c r="D26" s="18">
-        <v>1.30891</v>
+        <v>8.8323083841586403</v>
       </c>
       <c r="E26" s="18">
-        <v>20.364000000000001</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>13</v>
+        <v>37.4697969428533</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.88635133350749</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>13</v>
@@ -2165,19 +2165,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="18">
-        <v>5.9163599999999997E-2</v>
+        <v>0.1809014011334</v>
       </c>
       <c r="D27" s="18">
-        <v>18.618099999999998</v>
+        <v>16.152325528808099</v>
       </c>
       <c r="E27" s="18">
-        <v>37.2181</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>13</v>
+        <v>36.733072034307803</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.0970850712536599</v>
+      </c>
+      <c r="G27" s="19">
+        <v>16.746320125182699</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>13</v>
@@ -2197,19 +2197,19 @@
         <v>62</v>
       </c>
       <c r="C28" s="18">
-        <v>0.72286300000000003</v>
+        <v>1.29687579949748</v>
       </c>
       <c r="D28" s="18">
-        <v>22.565100000000001</v>
+        <v>22.668882565291899</v>
       </c>
       <c r="E28" s="18">
-        <v>103.76900000000001</v>
+        <v>107.073492511008</v>
       </c>
       <c r="F28" s="18">
-        <v>0.13389499999999999</v>
+        <v>0.1381589729046</v>
       </c>
       <c r="G28" s="19">
-        <v>41.076500000000003</v>
+        <v>42.384603382239398</v>
       </c>
       <c r="H28" s="20">
         <v>6719490</v>
@@ -2229,22 +2229,22 @@
         <v>64</v>
       </c>
       <c r="C29" s="18">
-        <v>0.103612</v>
+        <v>0.11337395687545</v>
       </c>
       <c r="D29" s="18">
-        <v>9.8000000000000007</v>
+        <v>11.831361822689001</v>
       </c>
       <c r="E29" s="18">
-        <v>34.142800000000001</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>13</v>
+        <v>47.226734159649197</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.26757941903743998</v>
+      </c>
+      <c r="G29" s="19">
+        <v>15.9678335201507</v>
+      </c>
+      <c r="H29" s="20">
+        <v>33317</v>
       </c>
       <c r="I29" s="18">
         <v>66.989999999999995</v>
@@ -2261,19 +2261,19 @@
         <v>66</v>
       </c>
       <c r="C30" s="18">
-        <v>21.638500000000001</v>
+        <v>24.903145871409802</v>
       </c>
       <c r="D30" s="18">
-        <v>63.999899999999997</v>
+        <v>61.7299551453346</v>
       </c>
       <c r="E30" s="18">
-        <v>147.01499999999999</v>
+        <v>143.99677847130101</v>
       </c>
       <c r="F30" s="18">
-        <v>36.127600000000001</v>
+        <v>35.385900720446799</v>
       </c>
       <c r="G30" s="19">
-        <v>87.385000000000005</v>
+        <v>85.591142030380794</v>
       </c>
       <c r="H30" s="20">
         <v>101657</v>
@@ -2293,19 +2293,19 @@
         <v>68</v>
       </c>
       <c r="C31" s="18">
-        <v>6.0974E-2</v>
+        <v>0.13452390859159</v>
       </c>
       <c r="D31" s="18">
-        <v>21.767600000000002</v>
+        <v>21.358010073333698</v>
       </c>
       <c r="E31" s="18">
-        <v>76.491500000000002</v>
+        <v>75.251475883028803</v>
       </c>
       <c r="F31" s="18">
-        <v>9.0227600000000005E-2</v>
+        <v>8.8764901798420004E-2</v>
       </c>
       <c r="G31" s="19">
-        <v>42.303899999999999</v>
+        <v>41.618078277663301</v>
       </c>
       <c r="H31" s="20">
         <v>37065</v>
@@ -2325,22 +2325,22 @@
         <v>70</v>
       </c>
       <c r="C32" s="18">
-        <v>20.2851</v>
+        <v>33.133706055150199</v>
       </c>
       <c r="D32" s="18">
-        <v>58.769799999999996</v>
+        <v>74.756313146135994</v>
       </c>
       <c r="E32" s="18">
-        <v>198.15199999999999</v>
+        <v>185.55934541831101</v>
       </c>
       <c r="F32" s="18">
-        <v>20.587499999999999</v>
+        <v>19.2791170045606</v>
       </c>
       <c r="G32" s="19">
-        <v>91.9756</v>
+        <v>86.130379795347395</v>
       </c>
       <c r="H32" s="20">
-        <v>14037</v>
+        <v>5461</v>
       </c>
       <c r="I32" s="18">
         <v>75.64</v>
@@ -2357,19 +2357,19 @@
         <v>72</v>
       </c>
       <c r="C33" s="18">
-        <v>0.67173099999999997</v>
-      </c>
-      <c r="D33" s="18">
-        <v>2.0040499999999999</v>
+        <v>0.71959777991385998</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="18">
-        <v>48.796399999999998</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>13</v>
+        <v>51.478915983055202</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.56941550437072996</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2.5905276792250902</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>13</v>
@@ -2385,31 +2385,31 @@
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="14">
-        <v>2.3414899999999999E-3</v>
-      </c>
-      <c r="D34" s="14">
-        <v>7.97743</v>
-      </c>
-      <c r="E34" s="14">
-        <v>20.086300000000001</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="C34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="15">
-        <v>5.9495899999999997</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="D34" s="27">
+        <v>5.6</v>
+      </c>
+      <c r="E34" s="27">
+        <v>21.2675922067187</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="28">
+        <v>6.2994931116672399</v>
+      </c>
+      <c r="H34" s="29">
         <v>800</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="28">
         <v>4.9471340000000001</v>
       </c>
     </row>
@@ -2421,22 +2421,22 @@
         <v>76</v>
       </c>
       <c r="C35" s="18">
-        <v>7.4681499999999998E-2</v>
+        <v>6.4765268318620006E-2</v>
       </c>
       <c r="D35" s="18">
-        <v>30.8703</v>
+        <v>25.9</v>
       </c>
       <c r="E35" s="18">
-        <v>77.111999999999995</v>
+        <v>76.364935650929496</v>
       </c>
       <c r="F35" s="18">
-        <v>0.321961</v>
+        <v>0.31884183816869999</v>
       </c>
       <c r="G35" s="19">
-        <v>37.934800000000003</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>13</v>
+        <v>37.567283638106503</v>
+      </c>
+      <c r="H35" s="20">
+        <v>90000</v>
       </c>
       <c r="I35" s="18">
         <v>34</v>
@@ -2453,19 +2453,19 @@
         <v>78</v>
       </c>
       <c r="C36" s="18">
-        <v>1.5293600000000001</v>
+        <v>1.8403968409574201</v>
       </c>
       <c r="D36" s="18">
-        <v>25</v>
+        <v>18.277257123404901</v>
       </c>
       <c r="E36" s="18">
-        <v>82.208200000000005</v>
+        <v>79.644526420016106</v>
       </c>
       <c r="F36" s="18">
-        <v>0.131519</v>
+        <v>0.12741726057934</v>
       </c>
       <c r="G36" s="19">
-        <v>9.7916100000000004</v>
+        <v>9.48625747355897</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>13</v>
@@ -2485,19 +2485,19 @@
         <v>80</v>
       </c>
       <c r="C37" s="18">
-        <v>2.75667E-2</v>
+        <v>7.7910827774169994E-2</v>
       </c>
       <c r="D37" s="18">
-        <v>23.706499999999998</v>
+        <v>6.0178150919894096</v>
       </c>
       <c r="E37" s="18">
-        <v>57.365600000000001</v>
+        <v>59.129329429175201</v>
       </c>
       <c r="F37" s="18">
-        <v>0.172787</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>13</v>
+        <v>0.19956189981252001</v>
+      </c>
+      <c r="G37" s="19">
+        <v>39.515535606350603</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>13</v>
@@ -2517,22 +2517,22 @@
         <v>81</v>
       </c>
       <c r="C38" s="23">
-        <v>0.48509359243179001</v>
+        <v>0.68747332524490001</v>
       </c>
       <c r="D38" s="23">
-        <v>20.662949917864299</v>
+        <v>17.1535319751946</v>
       </c>
       <c r="E38" s="23">
-        <v>61.211285627232698</v>
+        <v>62.399049162448101</v>
       </c>
       <c r="F38" s="23">
-        <v>0.42796528588651001</v>
+        <v>0.63870053211643996</v>
       </c>
       <c r="G38" s="24">
-        <v>28.1278900423059</v>
+        <v>24.2433152275519</v>
       </c>
       <c r="H38" s="25">
-        <v>4487866.8187347297</v>
+        <v>2362889.1878163698</v>
       </c>
       <c r="I38" s="23">
         <v>59.801749855731799</v>
@@ -2549,19 +2549,19 @@
         <v>83</v>
       </c>
       <c r="C39" s="27">
-        <v>7.2553900000000002</v>
+        <v>8.7233916416461508</v>
       </c>
       <c r="D39" s="27">
-        <v>47.691099999999999</v>
+        <v>58.977574553554199</v>
       </c>
       <c r="E39" s="27">
-        <v>109.35599999999999</v>
+        <v>106.36960908520901</v>
       </c>
       <c r="F39" s="27">
-        <v>10.766299999999999</v>
+        <v>10.854984319535699</v>
       </c>
       <c r="G39" s="28">
-        <v>95.986800000000002</v>
+        <v>90.551194875548205</v>
       </c>
       <c r="H39" s="29">
         <v>722554</v>
@@ -2581,22 +2581,22 @@
         <v>85</v>
       </c>
       <c r="C40" s="18">
-        <v>6.6851500000000001</v>
+        <v>8.6866387753259602</v>
       </c>
       <c r="D40" s="18">
-        <v>57.282899999999998</v>
+        <v>57.282866399019497</v>
       </c>
       <c r="E40" s="18">
-        <v>94.971699999999998</v>
+        <v>90.268378779354293</v>
       </c>
       <c r="F40" s="18">
-        <v>8.7265700000000006</v>
+        <v>8.29440090190114</v>
       </c>
       <c r="G40" s="19">
-        <v>59.342500000000001</v>
+        <v>56.403693055368997</v>
       </c>
       <c r="H40" s="20">
-        <v>1545030</v>
+        <v>1545034.17</v>
       </c>
       <c r="I40" s="18">
         <v>84.91</v>
@@ -2613,19 +2613,19 @@
         <v>87</v>
       </c>
       <c r="C41" s="27">
-        <v>4.8323</v>
-      </c>
-      <c r="D41" s="27">
-        <v>21.758900000000001</v>
+        <v>4.9895235035111503</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="E41" s="27">
-        <v>91.479299999999995</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>13</v>
+        <v>56.598419750199703</v>
+      </c>
+      <c r="F41" s="27">
+        <v>23.991153718750599</v>
+      </c>
+      <c r="G41" s="28">
+        <v>22.118747686132401</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>13</v>
@@ -2645,19 +2645,19 @@
         <v>89</v>
       </c>
       <c r="C42" s="27">
-        <v>0.30027399999999999</v>
+        <v>0.41028283440819002</v>
       </c>
       <c r="D42" s="27">
-        <v>20.800999999999998</v>
+        <v>42.3206827378459</v>
       </c>
       <c r="E42" s="27">
-        <v>104.09</v>
+        <v>107.458105299271</v>
       </c>
       <c r="F42" s="27">
-        <v>1.3668199999999999</v>
+        <v>1.41104344858672</v>
       </c>
       <c r="G42" s="28">
-        <v>55.530500000000004</v>
+        <v>57.327284157662397</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>13</v>
@@ -2677,22 +2677,22 @@
         <v>91</v>
       </c>
       <c r="C43" s="18">
-        <v>4.3092899999999998</v>
+        <v>5.6960230351422503</v>
       </c>
       <c r="D43" s="18">
-        <v>74.376300000000001</v>
+        <v>84.120363046760204</v>
       </c>
       <c r="E43" s="18">
-        <v>127.953</v>
+        <v>127.952998386231</v>
       </c>
       <c r="F43" s="18">
-        <v>5.6332500000000003</v>
+        <v>5.63324745778029</v>
       </c>
       <c r="G43" s="19">
-        <v>64.919300000000007</v>
+        <v>64.919263992925593</v>
       </c>
       <c r="H43" s="20">
-        <v>1970050</v>
+        <v>1970047</v>
       </c>
       <c r="I43" s="18">
         <v>98</v>
@@ -2709,22 +2709,22 @@
         <v>93</v>
       </c>
       <c r="C44" s="18">
-        <v>8.7711000000000006</v>
+        <v>10.974793620936801</v>
       </c>
       <c r="D44" s="18">
-        <v>66.7</v>
+        <v>66.6999983024144</v>
       </c>
       <c r="E44" s="18">
-        <v>126.30500000000001</v>
+        <v>122.58829008854801</v>
       </c>
       <c r="F44" s="18">
-        <v>12.4345</v>
+        <v>12.068595772340201</v>
       </c>
       <c r="G44" s="19">
-        <v>77.791200000000003</v>
+        <v>75.501924839870597</v>
       </c>
       <c r="H44" s="20">
-        <v>453224</v>
+        <v>460444</v>
       </c>
       <c r="I44" s="18">
         <v>90</v>
@@ -2741,22 +2741,22 @@
         <v>94</v>
       </c>
       <c r="C45" s="23">
-        <v>6.31499730829551</v>
+        <v>8.0127828772784007</v>
       </c>
       <c r="D45" s="23">
-        <v>56.951169799869703</v>
+        <v>62.726822653020101</v>
       </c>
       <c r="E45" s="23">
-        <v>105.597438664915</v>
+        <v>101.34253972203901</v>
       </c>
       <c r="F45" s="23">
-        <v>8.6630086686973193</v>
+        <v>8.9260670067115306</v>
       </c>
       <c r="G45" s="24">
-        <v>69.155182289599097</v>
+        <v>64.959186391686998</v>
       </c>
       <c r="H45" s="25">
-        <v>1378007.7910981399</v>
+        <v>1378451.80451008</v>
       </c>
       <c r="I45" s="23">
         <v>86.814005211101502</v>
@@ -2773,22 +2773,22 @@
         <v>96</v>
       </c>
       <c r="C46" s="18">
-        <v>0.23538400000000001</v>
+        <v>0.23713286661847999</v>
       </c>
       <c r="D46" s="18">
-        <v>20</v>
+        <v>22.415938431096301</v>
       </c>
       <c r="E46" s="18">
-        <v>87.701999999999998</v>
+        <v>84.210521605240601</v>
       </c>
       <c r="F46" s="18">
-        <v>0.30435200000000001</v>
+        <v>0.29223517067406002</v>
       </c>
       <c r="G46" s="19">
-        <v>21.457999999999998</v>
+        <v>20.603779651898702</v>
       </c>
       <c r="H46" s="20">
-        <v>76206.100000000006</v>
+        <v>76206.080000000002</v>
       </c>
       <c r="I46" s="18">
         <v>45</v>
@@ -2805,19 +2805,19 @@
         <v>98</v>
       </c>
       <c r="C47" s="18">
-        <v>6.9959400000000005E-2</v>
+        <v>6.4950252817659995E-2</v>
       </c>
       <c r="D47" s="18">
-        <v>16</v>
+        <v>9.2718060095318595</v>
       </c>
       <c r="E47" s="18">
-        <v>100.212</v>
+        <v>97.197684629827805</v>
       </c>
       <c r="F47" s="18">
-        <v>0.37050100000000002</v>
+        <v>0.35935613438165998</v>
       </c>
       <c r="G47" s="19">
-        <v>31.6966</v>
+        <v>30.743074563283599</v>
       </c>
       <c r="H47" s="20">
         <v>44190</v>
@@ -2837,22 +2837,22 @@
         <v>100</v>
       </c>
       <c r="C48" s="27">
-        <v>2.8793600000000001</v>
+        <v>4.2631813812989199</v>
       </c>
       <c r="D48" s="27">
-        <v>61.943399999999997</v>
+        <v>61.943397759308802</v>
       </c>
       <c r="E48" s="27">
-        <v>108.318</v>
+        <v>103.232240958009</v>
       </c>
       <c r="F48" s="27">
-        <v>10.457800000000001</v>
+        <v>9.9667261667504299</v>
       </c>
       <c r="G48" s="28">
-        <v>76.538700000000006</v>
+        <v>72.944734242587003</v>
       </c>
       <c r="H48" s="29">
-        <v>13000</v>
+        <v>15245</v>
       </c>
       <c r="I48" s="27">
         <v>60.84</v>
@@ -2869,19 +2869,19 @@
         <v>102</v>
       </c>
       <c r="C49" s="18">
-        <v>0.70172900000000005</v>
+        <v>0.97483234054868995</v>
       </c>
       <c r="D49" s="18">
-        <v>36.289000000000001</v>
+        <v>36.288954565520498</v>
       </c>
       <c r="E49" s="18">
-        <v>145.34100000000001</v>
+        <v>142.944947310744</v>
       </c>
       <c r="F49" s="18">
-        <v>1.05661</v>
+        <v>1.0391948370231701</v>
       </c>
       <c r="G49" s="19">
-        <v>66.187600000000003</v>
+        <v>65.0965706119093</v>
       </c>
       <c r="H49" s="20">
         <v>88288</v>
@@ -2901,19 +2901,19 @@
         <v>104</v>
       </c>
       <c r="C50" s="18">
-        <v>0.19442200000000001</v>
+        <v>0.19425057158230999</v>
       </c>
       <c r="D50" s="18">
-        <v>19.836500000000001</v>
+        <v>28.804871988147202</v>
       </c>
       <c r="E50" s="18">
-        <v>133.97200000000001</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>13</v>
+        <v>103.022459388318</v>
+      </c>
+      <c r="F50" s="18">
+        <v>2.39150156005618</v>
+      </c>
+      <c r="G50" s="19">
+        <v>38.928264519204603</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>13</v>
@@ -2933,19 +2933,19 @@
         <v>106</v>
       </c>
       <c r="C51" s="14">
-        <v>0.19756000000000001</v>
+        <v>0.24353642319322</v>
       </c>
       <c r="D51" s="14">
-        <v>39</v>
+        <v>45.009630731982199</v>
       </c>
       <c r="E51" s="14">
-        <v>134.31899999999999</v>
+        <v>129.61328951671999</v>
       </c>
       <c r="F51" s="14">
-        <v>0.94855800000000001</v>
+        <v>0.91532372806671003</v>
       </c>
       <c r="G51" s="15">
-        <v>99.899699999999996</v>
+        <v>96.399541403876398</v>
       </c>
       <c r="H51" s="16">
         <v>411290</v>
@@ -2965,19 +2965,19 @@
         <v>108</v>
       </c>
       <c r="C52" s="18">
-        <v>9.3391199999999994E-3</v>
+        <v>7.5728018882299996E-3</v>
       </c>
       <c r="D52" s="18">
-        <v>18</v>
+        <v>23.366260252680998</v>
       </c>
       <c r="E52" s="18">
-        <v>100.797</v>
+        <v>99.964760344718101</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="19">
-        <v>23.165500000000002</v>
+        <v>22.974337175320301</v>
       </c>
       <c r="H52" s="20">
         <v>42000</v>
@@ -2997,19 +2997,19 @@
         <v>110</v>
       </c>
       <c r="C53" s="18">
-        <v>6.4237199999999994E-2</v>
+        <v>0.11821445083608</v>
       </c>
       <c r="D53" s="18">
-        <v>3.9305099999999999</v>
+        <v>22.9200902858977</v>
       </c>
       <c r="E53" s="18">
-        <v>82.792599999999993</v>
+        <v>80.711317583341099</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="19">
-        <v>36.709499999999998</v>
+        <v>35.786640249769597</v>
       </c>
       <c r="H53" s="20">
         <v>5756</v>
@@ -3029,19 +3029,19 @@
         <v>112</v>
       </c>
       <c r="C54" s="18">
-        <v>0.19139900000000001</v>
+        <v>0.25552403655645001</v>
       </c>
       <c r="D54" s="18">
-        <v>7.9844799999999996</v>
+        <v>23.4825904734193</v>
       </c>
       <c r="E54" s="18">
-        <v>56.569000000000003</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>13</v>
+        <v>38.854317171983404</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.12035410585023</v>
+      </c>
+      <c r="G54" s="19">
+        <v>8.0436660743238804</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>13</v>
@@ -3061,19 +3061,19 @@
         <v>114</v>
       </c>
       <c r="C55" s="18">
-        <v>0.63397400000000004</v>
+        <v>1.1487256903021299</v>
       </c>
       <c r="D55" s="18">
-        <v>13</v>
+        <v>22.311090041643599</v>
       </c>
       <c r="E55" s="18">
-        <v>116.621</v>
+        <v>111.46501380046401</v>
       </c>
       <c r="F55" s="18">
-        <v>1.23227</v>
+        <v>1.1777896930602501</v>
       </c>
       <c r="G55" s="19">
-        <v>35.072400000000002</v>
+        <v>33.521674858261299</v>
       </c>
       <c r="H55" s="20">
         <v>33850</v>
@@ -3093,19 +3093,19 @@
         <v>116</v>
       </c>
       <c r="C56" s="18">
-        <v>4.0041899999999998E-2</v>
+        <v>4.931444902261E-2</v>
       </c>
       <c r="D56" s="18">
-        <v>10.224299999999999</v>
+        <v>16.611902175719599</v>
       </c>
       <c r="E56" s="18">
-        <v>40.638500000000001</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>13</v>
+        <v>51.6947354847483</v>
+      </c>
+      <c r="F56" s="18">
+        <v>0.24740446060858001</v>
+      </c>
+      <c r="G56" s="19">
+        <v>5.00354193610114</v>
       </c>
       <c r="H56" s="20" t="s">
         <v>13</v>
@@ -3121,31 +3121,31 @@
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="27">
-        <v>3.7761400000000001E-2</v>
-      </c>
-      <c r="D57" s="27">
-        <v>42</v>
-      </c>
-      <c r="E57" s="27">
-        <v>91.8536</v>
-      </c>
-      <c r="F57" s="27">
-        <v>5.3320100000000002E-2</v>
-      </c>
-      <c r="G57" s="28">
-        <v>35.9039</v>
-      </c>
-      <c r="H57" s="29">
+      <c r="C57" s="18">
+        <v>3.1351132278309997E-2</v>
+      </c>
+      <c r="D57" s="18">
+        <v>45.031373415943598</v>
+      </c>
+      <c r="E57" s="18">
+        <v>90.795954965913893</v>
+      </c>
+      <c r="F57" s="18">
+        <v>5.2706164505209999E-2</v>
+      </c>
+      <c r="G57" s="19">
+        <v>35.490521281743199</v>
+      </c>
+      <c r="H57" s="20">
         <v>395302</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="18">
         <v>67.28</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="19">
         <v>31.543589999999998</v>
       </c>
     </row>
@@ -3157,19 +3157,19 @@
         <v>120</v>
       </c>
       <c r="C58" s="18">
-        <v>0.81882999999999995</v>
+        <v>1.07910504425619</v>
       </c>
       <c r="D58" s="18">
-        <v>46</v>
+        <v>36.2366272683239</v>
       </c>
       <c r="E58" s="18">
-        <v>109.721</v>
+        <v>111.748257788167</v>
       </c>
       <c r="F58" s="18">
-        <v>1.2738499999999999</v>
+        <v>1.2973866713131099</v>
       </c>
       <c r="G58" s="19">
-        <v>54.245699999999999</v>
+        <v>55.2477407196561</v>
       </c>
       <c r="H58" s="20" t="s">
         <v>13</v>
@@ -3188,20 +3188,20 @@
       <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>13</v>
+      <c r="C59" s="18">
+        <v>2.18606577386E-3</v>
       </c>
       <c r="D59" s="18">
-        <v>9</v>
+        <v>16.8</v>
       </c>
       <c r="E59" s="18">
-        <v>86.133600000000001</v>
+        <v>83.633004209857603</v>
       </c>
       <c r="F59" s="18">
-        <v>4.3951200000000003E-2</v>
+        <v>5.91537435621E-3</v>
       </c>
       <c r="G59" s="19">
-        <v>14.7454</v>
+        <v>14.31730614846</v>
       </c>
       <c r="H59" s="20">
         <v>26301</v>
@@ -3221,19 +3221,19 @@
         <v>124</v>
       </c>
       <c r="C60" s="14">
-        <v>0.33154600000000001</v>
+        <v>0.62428783618278005</v>
       </c>
       <c r="D60" s="14">
-        <v>12.360200000000001</v>
+        <v>20.727327163366802</v>
       </c>
       <c r="E60" s="14">
-        <v>77.194999999999993</v>
+        <v>75.689819866181296</v>
       </c>
       <c r="F60" s="14">
-        <v>0.53950799999999999</v>
+        <v>0.52898826581378</v>
       </c>
       <c r="G60" s="15">
-        <v>41.104500000000002</v>
+        <v>24.8729906513258</v>
       </c>
       <c r="H60" s="16">
         <v>36538</v>
@@ -3253,22 +3253,22 @@
         <v>125</v>
       </c>
       <c r="C61" s="23">
-        <v>0.18112029529014001</v>
+        <v>0.24312195355061</v>
       </c>
       <c r="D61" s="23">
-        <v>33.246303212165202</v>
+        <v>36.340842429772501</v>
       </c>
       <c r="E61" s="23">
-        <v>97.7646533982726</v>
+        <v>96.3343561676473</v>
       </c>
       <c r="F61" s="23">
-        <v>0.39244604874869998</v>
+        <v>0.38406859843911001</v>
       </c>
       <c r="G61" s="24">
-        <v>42.947852152094597</v>
+        <v>39.169682288224699</v>
       </c>
       <c r="H61" s="25">
-        <v>286497.923517188</v>
+        <v>286501.66144237999</v>
       </c>
       <c r="I61" s="23">
         <v>59.001566578517</v>
@@ -3285,22 +3285,22 @@
         <v>126</v>
       </c>
       <c r="C62" s="33">
-        <v>1.3345380037666099</v>
+        <v>1.7873075262049101</v>
       </c>
       <c r="D62" s="33">
-        <v>30.3182176918274</v>
+        <v>33.158420059916601</v>
       </c>
       <c r="E62" s="33">
-        <v>83.037479179638893</v>
+        <v>82.049574607915801</v>
       </c>
       <c r="F62" s="33">
-        <v>2.3550481510218102</v>
+        <v>2.1691774270305699</v>
       </c>
       <c r="G62" s="34">
-        <v>43.798718646985201</v>
+        <v>38.555907342562698</v>
       </c>
       <c r="H62" s="35">
-        <v>790516.80471383396</v>
+        <v>789378.94268744998</v>
       </c>
       <c r="I62" s="33">
         <v>61.864831693546698</v>
@@ -3317,22 +3317,22 @@
         <v>127</v>
       </c>
       <c r="C63" s="37">
-        <v>16.478028745220499</v>
+        <v>18.664009607456901</v>
       </c>
       <c r="D63" s="37">
-        <v>55.3696963197511</v>
+        <v>57.797495035510003</v>
       </c>
       <c r="E63" s="37">
-        <v>111.748464681493</v>
+        <v>110.436824708592</v>
       </c>
       <c r="F63" s="37">
-        <v>14.1510898301779</v>
+        <v>13.779500164586</v>
       </c>
       <c r="G63" s="38">
-        <v>83.050114410470201</v>
+        <v>81.317768584199996</v>
       </c>
       <c r="H63" s="39">
-        <v>22384732.445953101</v>
+        <v>21964127.423882201</v>
       </c>
       <c r="I63" s="37">
         <v>93.732414965055398</v>
@@ -3349,22 +3349,22 @@
         <v>128</v>
       </c>
       <c r="C64" s="33">
-        <v>12.7892429192152</v>
+        <v>14.8896184389026</v>
       </c>
       <c r="D64" s="33">
-        <v>67.912171532378196</v>
+        <v>68.702529453087706</v>
       </c>
       <c r="E64" s="33">
-        <v>101.54801495708701</v>
+        <v>102.51202926656801</v>
       </c>
       <c r="F64" s="33">
-        <v>15.1524654305342</v>
+        <v>14.7823695383691</v>
       </c>
       <c r="G64" s="34">
-        <v>74.7389366047274</v>
+        <v>72.696489864425502</v>
       </c>
       <c r="H64" s="35">
-        <v>2340233.6180920899</v>
+        <v>2205525.0458183899</v>
       </c>
       <c r="I64" s="33">
         <v>89.098455592903505</v>
@@ -3381,22 +3381,22 @@
         <v>129</v>
       </c>
       <c r="C65" s="42">
-        <v>11.859187355612701</v>
+        <v>14.1649961559426</v>
       </c>
       <c r="D65" s="42">
-        <v>42.890145361626701</v>
+        <v>45.966262891867899</v>
       </c>
       <c r="E65" s="42">
-        <v>106.921581690143</v>
+        <v>106.997512678563</v>
       </c>
       <c r="F65" s="42">
-        <v>7.1683472827344401</v>
+        <v>7.0557011530696796</v>
       </c>
       <c r="G65" s="43">
-        <v>69.724043109468894</v>
+        <v>69.018883892056493</v>
       </c>
       <c r="H65" s="44">
-        <v>24740022.874962501</v>
+        <v>24424828.986368898</v>
       </c>
       <c r="I65" s="42">
         <v>93.729229347077194</v>
@@ -3413,22 +3413,22 @@
         <v>130</v>
       </c>
       <c r="C66" s="46">
-        <v>13.8423164929245</v>
+        <v>15.780828840587199</v>
       </c>
       <c r="D66" s="46">
-        <v>51.051723020906898</v>
+        <v>53.583602489014197</v>
       </c>
       <c r="E66" s="46">
-        <v>106.816249299384</v>
+        <v>105.560223325707</v>
       </c>
       <c r="F66" s="46">
-        <v>12.510521014237201</v>
+        <v>11.9306369564354</v>
       </c>
       <c r="G66" s="47">
-        <v>77.051559272951295</v>
+        <v>74.013265285141699</v>
       </c>
       <c r="H66" s="48">
-        <v>18637014.203163002</v>
+        <v>18139312.299753301</v>
       </c>
       <c r="I66" s="46">
         <v>87.566230620953206</v>
@@ -3445,22 +3445,22 @@
         <v>131</v>
       </c>
       <c r="C67" s="50">
-        <v>1.61542972380349</v>
+        <v>2.1122881791660699</v>
       </c>
       <c r="D67" s="50">
-        <v>25.9431771827931</v>
+        <v>25.495885064820499</v>
       </c>
       <c r="E67" s="50">
-        <v>66.066247468235105</v>
+        <v>65.304258885605094</v>
       </c>
       <c r="F67" s="50">
-        <v>3.5665366072553399</v>
+        <v>2.8841979224024401</v>
       </c>
       <c r="G67" s="51">
-        <v>41.476623154704598</v>
+        <v>33.5008258722536</v>
       </c>
       <c r="H67" s="52">
-        <v>1531201.3464831</v>
+        <v>1278113.76232561</v>
       </c>
       <c r="I67" s="50">
         <v>62.926791416041297</v>
@@ -3477,22 +3477,22 @@
         <v>132</v>
       </c>
       <c r="C68" s="42">
-        <v>1.7089945800686399</v>
+        <v>2.2525279546474799</v>
       </c>
       <c r="D68" s="42">
-        <v>38.136124728492902</v>
+        <v>41.611763396134002</v>
       </c>
       <c r="E68" s="42">
-        <v>94.892464451885303</v>
+        <v>93.042732187767299</v>
       </c>
       <c r="F68" s="42">
-        <v>2.5271570946290001</v>
+        <v>2.5067325230682602</v>
       </c>
       <c r="G68" s="43">
-        <v>46.150222457890898</v>
+        <v>42.137702723555797</v>
       </c>
       <c r="H68" s="44">
-        <v>657374.08305440401</v>
+        <v>613525.99671701901</v>
       </c>
       <c r="I68" s="42">
         <v>63.970524436671802</v>
@@ -3509,28 +3509,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="42">
-        <v>0.69268508462268996</v>
+        <v>0.68664832808130005</v>
       </c>
       <c r="D69" s="42">
-        <v>21.484289884427401</v>
+        <v>15.617065804553</v>
       </c>
       <c r="E69" s="42">
-        <v>76.945323102631093</v>
+        <v>65.691298206194503</v>
       </c>
       <c r="F69" s="42">
-        <v>0.14248835237314</v>
+        <v>0.14831722745545001</v>
       </c>
       <c r="G69" s="43">
-        <v>23.404425073974402</v>
+        <v>24.559665893756598</v>
       </c>
       <c r="H69" s="44">
-        <v>3982453.67518936</v>
+        <v>1965077.1417449999</v>
       </c>
       <c r="I69" s="42">
-        <v>54.829900460258401</v>
+        <v>46.808625823296403</v>
       </c>
       <c r="J69" s="43">
-        <v>29.214691443909601</v>
+        <v>26.147645740404101</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3541,22 +3541,22 @@
         <v>134</v>
       </c>
       <c r="C70" s="42">
-        <v>9.1736025595370002E-2</v>
+        <v>0.57790382336266</v>
       </c>
       <c r="D70" s="42">
-        <v>12.3236820900339</v>
+        <v>21.104323475318001</v>
       </c>
       <c r="E70" s="42">
-        <v>54.188421665619899</v>
+        <v>52.877308311591797</v>
       </c>
       <c r="F70" s="42">
-        <v>1.03284827417166</v>
+        <v>0.94676102142861995</v>
       </c>
       <c r="G70" s="43">
-        <v>19.266498016686601</v>
+        <v>19.178829872742899</v>
       </c>
       <c r="H70" s="44">
-        <v>30440.463403034999</v>
+        <v>29837.3061086977</v>
       </c>
       <c r="I70" s="42">
         <v>45.890517783690299</v>
@@ -3573,22 +3573,22 @@
         <v>135</v>
       </c>
       <c r="C71" s="42">
-        <v>0.18112029529014001</v>
+        <v>0.24312195355061</v>
       </c>
       <c r="D71" s="42">
-        <v>33.246303212165202</v>
+        <v>36.340842429772501</v>
       </c>
       <c r="E71" s="42">
-        <v>97.764653398272699</v>
+        <v>96.3343561676473</v>
       </c>
       <c r="F71" s="42">
-        <v>0.39244604874869998</v>
+        <v>0.38406859843911001</v>
       </c>
       <c r="G71" s="43">
-        <v>42.947852152094597</v>
+        <v>39.169682288224699</v>
       </c>
       <c r="H71" s="44">
-        <v>286497.923517188</v>
+        <v>286501.66144237999</v>
       </c>
       <c r="I71" s="42">
         <v>59.0015665785171</v>
@@ -3605,22 +3605,22 @@
         <v>136</v>
       </c>
       <c r="C72" s="42">
-        <v>0.21804670348763999</v>
+        <v>0.39348245081206001</v>
       </c>
       <c r="D72" s="42">
-        <v>20.5734081585612</v>
+        <v>17.0112137271446</v>
       </c>
       <c r="E72" s="42">
-        <v>58.240374146964498</v>
+        <v>59.187258315835997</v>
       </c>
       <c r="F72" s="42">
-        <v>0.23338782418213</v>
+        <v>0.64017883785612995</v>
       </c>
       <c r="G72" s="43">
-        <v>36.142402992885202</v>
+        <v>26.9846583525215</v>
       </c>
       <c r="H72" s="44">
-        <v>5576238.5388952503</v>
+        <v>3309404.60855518</v>
       </c>
       <c r="I72" s="42">
         <v>64.151678946512305</v>
@@ -3637,22 +3637,22 @@
         <v>137</v>
       </c>
       <c r="C73" s="42">
-        <v>0.88669557446004998</v>
+        <v>1.0325927144082501</v>
       </c>
       <c r="D73" s="42">
-        <v>22.7479796871899</v>
+        <v>27.5036470142052</v>
       </c>
       <c r="E73" s="42">
-        <v>76.385521313276897</v>
+        <v>76.325084534400602</v>
       </c>
       <c r="F73" s="42">
-        <v>1.43915595767795</v>
+        <v>1.32070179494408</v>
       </c>
       <c r="G73" s="43">
-        <v>37.565098063162502</v>
+        <v>35.775284018411298</v>
       </c>
       <c r="H73" s="44">
-        <v>112057.106476125</v>
+        <v>268383.508237926</v>
       </c>
       <c r="I73" s="42">
         <v>50.543004529557301</v>
@@ -3669,22 +3669,22 @@
         <v>138</v>
       </c>
       <c r="C74" s="42">
-        <v>5.9304956285944197</v>
+        <v>7.3128049209310797</v>
       </c>
       <c r="D74" s="42">
-        <v>56.6077112465779</v>
+        <v>68.751191103723897</v>
       </c>
       <c r="E74" s="42">
-        <v>116.598851343276</v>
+        <v>112.808228690969</v>
       </c>
       <c r="F74" s="42">
-        <v>8.5926706900070506</v>
+        <v>9.5800657274684404</v>
       </c>
       <c r="G74" s="43">
-        <v>80.014052354691799</v>
+        <v>73.817160018553906</v>
       </c>
       <c r="H74" s="44">
-        <v>1184280.13873857</v>
+        <v>1185234.3228168001</v>
       </c>
       <c r="I74" s="42">
         <v>88.881731899446393</v>
@@ -3701,22 +3701,22 @@
         <v>139</v>
       </c>
       <c r="C75" s="46">
-        <v>0.31521308661795</v>
+        <v>0.48844893632123998</v>
       </c>
       <c r="D75" s="46">
-        <v>12.4873509546353</v>
+        <v>24.009202556557</v>
       </c>
       <c r="E75" s="46">
-        <v>49.284000941844099</v>
+        <v>48.860430351289203</v>
       </c>
       <c r="F75" s="46">
-        <v>0.42958890244505998</v>
+        <v>0.42221121180034998</v>
       </c>
       <c r="G75" s="47">
-        <v>20.553678599444002</v>
+        <v>20.345071902887302</v>
       </c>
       <c r="H75" s="48">
-        <v>58347.621164409204</v>
+        <v>58367.428614472701</v>
       </c>
       <c r="I75" s="46">
         <v>43.847348620812703</v>
@@ -3733,22 +3733,22 @@
         <v>140</v>
       </c>
       <c r="C76" s="50">
-        <v>5.9660611617880299</v>
+        <v>8.0466710064903904</v>
       </c>
       <c r="D76" s="50">
-        <v>52.218320032452397</v>
+        <v>52.929366880189498</v>
       </c>
       <c r="E76" s="50">
-        <v>136.93990578615299</v>
+        <v>141.35704121951201</v>
       </c>
       <c r="F76" s="50">
-        <v>5.6379231830243901</v>
+        <v>5.1954852416965798</v>
       </c>
       <c r="G76" s="51">
-        <v>84.244753387512205</v>
+        <v>83.159702243821499</v>
       </c>
       <c r="H76" s="52">
-        <v>11974701.9087025</v>
+        <v>11017216.514987299</v>
       </c>
       <c r="I76" s="50">
         <v>91.4309081951792</v>
@@ -3765,28 +3765,28 @@
         <v>141</v>
       </c>
       <c r="C77" s="42">
-        <v>13.7821179495773</v>
+        <v>16.219628409224701</v>
       </c>
       <c r="D77" s="42">
-        <v>70.522771528266503</v>
+        <v>71.4073296352623</v>
       </c>
       <c r="E77" s="42">
-        <v>104.151540638868</v>
+        <v>107.99503146770201</v>
       </c>
       <c r="F77" s="42">
-        <v>15.5002409443135</v>
+        <v>14.5850994269284</v>
       </c>
       <c r="G77" s="43">
-        <v>79.358077504134599</v>
+        <v>79.414136154187602</v>
       </c>
       <c r="H77" s="44">
-        <v>3205291.4352845</v>
+        <v>3651230.7591722501</v>
       </c>
       <c r="I77" s="42">
-        <v>90.6270108594791</v>
+        <v>90.812847438053296</v>
       </c>
       <c r="J77" s="43">
-        <v>62.260362065215503</v>
+        <v>63.070998122296203</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3797,22 +3797,22 @@
         <v>142</v>
       </c>
       <c r="C78" s="42">
-        <v>34.429031228912102</v>
+        <v>36.805837658969999</v>
       </c>
       <c r="D78" s="42">
-        <v>82.080206666229898</v>
+        <v>82.754352466755904</v>
       </c>
       <c r="E78" s="42">
-        <v>122.058172950968</v>
+        <v>121.813497802298</v>
       </c>
       <c r="F78" s="42">
-        <v>37.143186718771901</v>
+        <v>36.555790897082197</v>
       </c>
       <c r="G78" s="43">
-        <v>104.78554191848301</v>
+        <v>104.277748133174</v>
       </c>
       <c r="H78" s="44">
-        <v>981336.69814446406</v>
+        <v>981336.32570622803</v>
       </c>
       <c r="I78" s="42">
         <v>99</v>
@@ -3829,22 +3829,22 @@
         <v>143</v>
       </c>
       <c r="C79" s="46">
-        <v>31.3690826808918</v>
+        <v>33.323204126844502</v>
       </c>
       <c r="D79" s="46">
-        <v>83.876376804163598</v>
+        <v>84.776925988439203</v>
       </c>
       <c r="E79" s="46">
-        <v>123.66473788721299</v>
+        <v>116.859199315973</v>
       </c>
       <c r="F79" s="46">
-        <v>33.787482036854698</v>
+        <v>33.349797204631102</v>
       </c>
       <c r="G79" s="47">
-        <v>119.724839503724</v>
+        <v>118.646921037369</v>
       </c>
       <c r="H79" s="48">
-        <v>5601938.8031815505</v>
+        <v>5355758.3927999102</v>
       </c>
       <c r="I79" s="46">
         <v>95.819005511608395</v>
@@ -3861,28 +3861,28 @@
         <v>144</v>
       </c>
       <c r="C80" s="50">
-        <v>1.15608514695584</v>
+        <v>4.8008312292792699</v>
       </c>
       <c r="D80" s="50">
-        <v>36.913587951349697</v>
+        <v>38.075655334048797</v>
       </c>
       <c r="E80" s="50">
-        <v>87.754418322827604</v>
+        <v>71.730693583676796</v>
       </c>
       <c r="F80" s="50">
-        <v>1.65162710356395</v>
+        <v>5.8105239186795501</v>
       </c>
       <c r="G80" s="51">
-        <v>41.8669992465571</v>
+        <v>45.305007073787301</v>
       </c>
       <c r="H80" s="52">
-        <v>382811.62299573899</v>
+        <v>317802.617322476</v>
       </c>
       <c r="I80" s="50">
-        <v>66.681343774697993</v>
+        <v>65.534590596974098</v>
       </c>
       <c r="J80" s="51">
-        <v>34.6446918556613</v>
+        <v>38.195971740035603</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3893,22 +3893,22 @@
         <v>145</v>
       </c>
       <c r="C81" s="42">
-        <v>14.767539230710501</v>
+        <v>15.6439474532086</v>
       </c>
       <c r="D81" s="42">
-        <v>68.568139934121504</v>
+        <v>74.942888466919399</v>
       </c>
       <c r="E81" s="42">
-        <v>126.301977116115</v>
+        <v>124.20758171262899</v>
       </c>
       <c r="F81" s="42">
-        <v>19.563528231341898</v>
+        <v>18.210440574406999</v>
       </c>
       <c r="G81" s="43">
-        <v>85.981679833148903</v>
+        <v>78.302401820901196</v>
       </c>
       <c r="H81" s="44">
-        <v>4027740.13624922</v>
+        <v>4040531.3307824698</v>
       </c>
       <c r="I81" s="42">
         <v>75.350604807322497</v>
@@ -3925,28 +3925,28 @@
         <v>146</v>
       </c>
       <c r="C82" s="42">
-        <v>1.39066981869073</v>
+        <v>1.5603115890846999</v>
       </c>
       <c r="D82" s="42">
-        <v>28.2597797566346</v>
+        <v>32.701272931389802</v>
       </c>
       <c r="E82" s="42">
-        <v>81.565306111520897</v>
+        <v>83.100261631604994</v>
       </c>
       <c r="F82" s="42">
-        <v>2.65957947794162</v>
+        <v>1.7976842216650599</v>
       </c>
       <c r="G82" s="43">
-        <v>44.551353973722897</v>
+        <v>37.898032365186602</v>
       </c>
       <c r="H82" s="44">
-        <v>976598.00083528203</v>
+        <v>842485.11417851294</v>
       </c>
       <c r="I82" s="42">
-        <v>60.369436779996498</v>
+        <v>61.540252788375597</v>
       </c>
       <c r="J82" s="43">
-        <v>26.5752297940608</v>
+        <v>27.651120247470399</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3957,22 +3957,22 @@
         <v>147</v>
       </c>
       <c r="C83" s="46">
-        <v>16.6221927358147</v>
+        <v>18.918549173112702</v>
       </c>
       <c r="D83" s="46">
-        <v>54.257368037479701</v>
+        <v>56.545221399042703</v>
       </c>
       <c r="E83" s="46">
-        <v>110.527295156935</v>
+        <v>109.28133534758901</v>
       </c>
       <c r="F83" s="46">
-        <v>13.7285646684072</v>
+        <v>13.4076933184729</v>
       </c>
       <c r="G83" s="47">
-        <v>82.812284083773093</v>
+        <v>81.570792691837596</v>
       </c>
       <c r="H83" s="48">
-        <v>24414072.4329389</v>
+        <v>23899046.965466399</v>
       </c>
       <c r="I83" s="46">
         <v>94.816052476427998</v>
@@ -3989,28 +3989,28 @@
         <v>148</v>
       </c>
       <c r="C84" s="50">
-        <v>0.10204200615762</v>
+        <v>0.18095968397816001</v>
       </c>
       <c r="D84" s="50">
-        <v>14.6199298754926</v>
+        <v>15.466003842503</v>
       </c>
       <c r="E84" s="50">
-        <v>54.405796925368499</v>
+        <v>55.931347436653603</v>
       </c>
       <c r="F84" s="50">
-        <v>0.31031184161637998</v>
+        <v>0.53894146916551</v>
       </c>
       <c r="G84" s="51">
-        <v>24.265148212981899</v>
+        <v>22.3145792681808</v>
       </c>
       <c r="H84" s="52">
-        <v>34478.686938446197</v>
+        <v>41795.055749531901</v>
       </c>
       <c r="I84" s="50">
-        <v>48.702788374969202</v>
+        <v>48.412335658562903</v>
       </c>
       <c r="J84" s="51">
-        <v>16.164138089210301</v>
+        <v>16.642957614965699</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4021,19 +4021,19 @@
         <v>149</v>
       </c>
       <c r="C85" s="42">
-        <v>2.3815273423019501</v>
+        <v>2.13592753952181</v>
       </c>
       <c r="D85" s="42">
-        <v>22.828513634014801</v>
+        <v>23.521695339315901</v>
       </c>
       <c r="E85" s="42">
-        <v>57.749406496542299</v>
+        <v>51.927682377304897</v>
       </c>
       <c r="F85" s="42">
-        <v>6.01564162033619</v>
+        <v>4.68676267886394</v>
       </c>
       <c r="G85" s="43">
-        <v>16.536231974763702</v>
+        <v>12.9117281974095</v>
       </c>
       <c r="H85" s="44">
         <v>172282.035441641</v>
@@ -4053,28 +4053,28 @@
         <v>150</v>
       </c>
       <c r="C86" s="42">
-        <v>2.1204942567239802</v>
+        <v>2.90662664787813</v>
       </c>
       <c r="D86" s="42">
-        <v>40.152400573069798</v>
+        <v>43.933769452918597</v>
       </c>
       <c r="E86" s="42">
-        <v>97.745243362520995</v>
+        <v>96.033747655580498</v>
       </c>
       <c r="F86" s="42">
-        <v>2.86250410412097</v>
+        <v>2.8332558781105899</v>
       </c>
       <c r="G86" s="43">
-        <v>47.164280359200397</v>
+        <v>46.158709610333403</v>
       </c>
       <c r="H86" s="44">
-        <v>1159126.30161205</v>
+        <v>1193292.39413724</v>
       </c>
       <c r="I86" s="42">
-        <v>68.941448535436706</v>
+        <v>69.727312395142505</v>
       </c>
       <c r="J86" s="43">
-        <v>34.957386626265198</v>
+        <v>35.106482948232802</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4085,28 +4085,28 @@
         <v>151</v>
       </c>
       <c r="C87" s="42">
-        <v>3.10518227607515</v>
+        <v>3.8598241036448502</v>
       </c>
       <c r="D87" s="42">
-        <v>35.949190561820799</v>
+        <v>35.724347527870499</v>
       </c>
       <c r="E87" s="42">
-        <v>98.587260328485399</v>
+        <v>98.771466848416097</v>
       </c>
       <c r="F87" s="42">
-        <v>3.4694420511961499</v>
+        <v>3.4875502775230598</v>
       </c>
       <c r="G87" s="43">
-        <v>53.593859533653301</v>
+        <v>55.062947110265497</v>
       </c>
       <c r="H87" s="44">
-        <v>22413157.2257495</v>
+        <v>21711039.819803301</v>
       </c>
       <c r="I87" s="42">
-        <v>92.006966488278806</v>
+        <v>92.012892317303198</v>
       </c>
       <c r="J87" s="43">
-        <v>27.396541266847802</v>
+        <v>27.5333473524699</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4117,22 +4117,22 @@
         <v>152</v>
       </c>
       <c r="C88" s="42">
-        <v>2.8477624483851902</v>
+        <v>3.0949187779171998</v>
       </c>
       <c r="D88" s="42">
-        <v>52.354073748482598</v>
+        <v>67.971323563404596</v>
       </c>
       <c r="E88" s="42">
-        <v>153.59671473015999</v>
+        <v>150.931001223181</v>
       </c>
       <c r="F88" s="42">
-        <v>4.19316958054746</v>
+        <v>5.8575544666323598</v>
       </c>
       <c r="G88" s="43">
-        <v>99.823640777197596</v>
+        <v>91.261733363938404</v>
       </c>
       <c r="H88" s="44">
-        <v>332316.811057363</v>
+        <v>1155189.2246872301</v>
       </c>
       <c r="I88" s="42">
         <v>90.849044859066495</v>
@@ -4149,28 +4149,28 @@
         <v>153</v>
       </c>
       <c r="C89" s="42">
-        <v>22.8575071268484</v>
+        <v>26.993204614623501</v>
       </c>
       <c r="D89" s="42">
-        <v>61.652241367556499</v>
+        <v>67.332842283346906</v>
       </c>
       <c r="E89" s="42">
-        <v>120.80104392169299</v>
+        <v>121.227918130539</v>
       </c>
       <c r="F89" s="42">
-        <v>14.2972382975928</v>
+        <v>14.256083081250001</v>
       </c>
       <c r="G89" s="43">
-        <v>90.621782544364194</v>
+        <v>89.885999762905499</v>
       </c>
       <c r="H89" s="44">
-        <v>24212651.886422899</v>
+        <v>24280761.9805163</v>
       </c>
       <c r="I89" s="42">
-        <v>95.042794416424599</v>
+        <v>95.052734296396196</v>
       </c>
       <c r="J89" s="43">
-        <v>64.664785172984097</v>
+        <v>64.608990796111399</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4181,28 +4181,28 @@
         <v>154</v>
       </c>
       <c r="C90" s="46">
-        <v>34.393604266128897</v>
+        <v>35.8780452141662</v>
       </c>
       <c r="D90" s="46">
-        <v>87.486920191208796</v>
+        <v>88.2517496720086</v>
       </c>
       <c r="E90" s="46">
-        <v>128.999598071566</v>
+        <v>120.853762727279</v>
       </c>
       <c r="F90" s="46">
-        <v>36.9945591918978</v>
+        <v>36.035808653144997</v>
       </c>
       <c r="G90" s="47">
-        <v>131.01257382806099</v>
+        <v>128.55355853976599</v>
       </c>
       <c r="H90" s="48">
-        <v>4331021.3227925599</v>
+        <v>4981333.4719099402</v>
       </c>
       <c r="I90" s="46">
-        <v>98.865293058417905</v>
+        <v>98.807184161642098</v>
       </c>
       <c r="J90" s="47">
-        <v>86.035030211751703</v>
+        <v>85.608998063436502</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4213,22 +4213,22 @@
         <v>155</v>
       </c>
       <c r="C91" s="50">
-        <v>0.26785395006947998</v>
+        <v>0.38395856854860999</v>
       </c>
       <c r="D91" s="50">
-        <v>16.817865878992801</v>
+        <v>17.4623700571412</v>
       </c>
       <c r="E91" s="50">
-        <v>59.799509278500402</v>
+        <v>59.681243388499702</v>
       </c>
       <c r="F91" s="50">
-        <v>0.36727382591996</v>
+        <v>0.51733223522498994</v>
       </c>
       <c r="G91" s="51">
-        <v>24.672306321309001</v>
+        <v>22.266267064004101</v>
       </c>
       <c r="H91" s="52">
-        <v>37652.398932892502</v>
+        <v>42722.644958470599</v>
       </c>
       <c r="I91" s="50">
         <v>47.818424507521698</v>
@@ -4245,22 +4245,22 @@
         <v>156</v>
       </c>
       <c r="C92" s="42">
-        <v>3.4457534835241801</v>
+        <v>3.5680457236207301</v>
       </c>
       <c r="D92" s="42">
-        <v>19.837636707119799</v>
+        <v>29.618322187385001</v>
       </c>
       <c r="E92" s="42">
-        <v>92.653068571148196</v>
+        <v>101.54834858823</v>
       </c>
       <c r="F92" s="42">
-        <v>1.32893744693469</v>
+        <v>1.5980223581205599</v>
       </c>
       <c r="G92" s="43">
-        <v>49.077962129445197</v>
+        <v>54.589883757261703</v>
       </c>
       <c r="H92" s="44">
-        <v>1174906.68071475</v>
+        <v>1074965.73659766</v>
       </c>
       <c r="I92" s="42">
         <v>73.597656928058996</v>
@@ -4277,22 +4277,22 @@
         <v>157</v>
       </c>
       <c r="C93" s="42">
-        <v>6.4338225760736103</v>
+        <v>7.7405292966484804</v>
       </c>
       <c r="D93" s="42">
-        <v>29.4148651088374</v>
+        <v>37.986574733570897</v>
       </c>
       <c r="E93" s="42">
-        <v>102.32894894903301</v>
+        <v>100.678096187069</v>
       </c>
       <c r="F93" s="42">
-        <v>18.914023087897601</v>
+        <v>18.4750203300678</v>
       </c>
       <c r="G93" s="43">
-        <v>51.321204467012898</v>
+        <v>60.024926711672599</v>
       </c>
       <c r="H93" s="44">
-        <v>31535.883581274898</v>
+        <v>31616.699193858702</v>
       </c>
       <c r="I93" s="42">
         <v>63.511649936189599</v>
@@ -4309,28 +4309,28 @@
         <v>158</v>
       </c>
       <c r="C94" s="42">
-        <v>6.1942961540312398</v>
+        <v>6.9898468072886502</v>
       </c>
       <c r="D94" s="42">
-        <v>48.566287233993997</v>
+        <v>57.386338316481897</v>
       </c>
       <c r="E94" s="42">
-        <v>80.855496839140201</v>
+        <v>79.6352692483281</v>
       </c>
       <c r="F94" s="42">
-        <v>12.059316601231499</v>
+        <v>10.2331019759838</v>
       </c>
       <c r="G94" s="43">
-        <v>57.305901526181302</v>
+        <v>48.391641870570197</v>
       </c>
       <c r="H94" s="44">
-        <v>246467.19974961001</v>
+        <v>3871568.1156170899</v>
       </c>
       <c r="I94" s="42">
-        <v>70.898845930115002</v>
+        <v>69.751536042339694</v>
       </c>
       <c r="J94" s="43">
-        <v>58.868950575177202</v>
+        <v>57.281613711199199</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4341,22 +4341,22 @@
         <v>159</v>
       </c>
       <c r="C95" s="42">
-        <v>0.17138731806608001</v>
+        <v>0.35931055283681002</v>
       </c>
       <c r="D95" s="42">
-        <v>17.5992041562005</v>
+        <v>14.7569474529716</v>
       </c>
       <c r="E95" s="42">
-        <v>58.499014557389501</v>
+        <v>58.220726056585796</v>
       </c>
       <c r="F95" s="42">
-        <v>0.55039636100709</v>
+        <v>0.71275742027593003</v>
       </c>
       <c r="G95" s="43">
-        <v>31.505292573488699</v>
+        <v>25.335068311347101</v>
       </c>
       <c r="H95" s="44">
-        <v>36367.575445330098</v>
+        <v>36001.757349601001</v>
       </c>
       <c r="I95" s="42">
         <v>55.950807145904598</v>
@@ -4373,22 +4373,22 @@
         <v>160</v>
       </c>
       <c r="C96" s="46">
-        <v>6.3917069415941601</v>
+        <v>7.8836902362253598</v>
       </c>
       <c r="D96" s="46">
-        <v>43.262914947973798</v>
+        <v>51.4217113965111</v>
       </c>
       <c r="E96" s="46">
-        <v>104.405144547215</v>
+        <v>103.822422804281</v>
       </c>
       <c r="F96" s="46">
-        <v>9.2227177419580002</v>
+        <v>9.3352835831631999</v>
       </c>
       <c r="G96" s="47">
-        <v>60.580649962116503</v>
+        <v>59.010182413199601</v>
       </c>
       <c r="H96" s="48">
-        <v>498298.877854652</v>
+        <v>511070.99108655303</v>
       </c>
       <c r="I96" s="46">
         <v>72.452250181351104</v>
@@ -4405,28 +4405,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="50">
-        <v>0.29537701373517999</v>
+        <v>0.48338120254257</v>
       </c>
       <c r="D97" s="50">
-        <v>22.759858295734499</v>
+        <v>24.596741065146499</v>
       </c>
       <c r="E97" s="50">
-        <v>71.506849207206898</v>
+        <v>71.168634194175993</v>
       </c>
       <c r="F97" s="50">
-        <v>0.42235866854109</v>
+        <v>0.68896501687022005</v>
       </c>
       <c r="G97" s="51">
-        <v>29.618762780503399</v>
+        <v>26.607079682088099</v>
       </c>
       <c r="H97" s="52">
-        <v>722340.04850568401</v>
+        <v>643511.49565396295</v>
       </c>
       <c r="I97" s="50">
-        <v>53.313468850154898</v>
+        <v>53.207229588745498</v>
       </c>
       <c r="J97" s="51">
-        <v>23.889107367080999</v>
+        <v>23.819489556748501</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4437,28 +4437,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="46">
-        <v>4.3390784749556301</v>
+        <v>4.4335880473894802</v>
       </c>
       <c r="D98" s="46">
-        <v>28.442159539984502</v>
+        <v>32.152292104944401</v>
       </c>
       <c r="E98" s="46">
-        <v>88.614843200425796</v>
+        <v>91.058509567846201</v>
       </c>
       <c r="F98" s="46">
-        <v>7.4919949875811698</v>
+        <v>6.5434534426128099</v>
       </c>
       <c r="G98" s="47">
-        <v>46.810180150635098</v>
+        <v>45.694194215715001</v>
       </c>
       <c r="H98" s="48">
-        <v>1745327.4087221101</v>
+        <v>1660192.9548019799</v>
       </c>
       <c r="I98" s="46">
-        <v>75.076525538585301</v>
+        <v>75.107079713759106</v>
       </c>
       <c r="J98" s="47">
-        <v>29.875277893197701</v>
+        <v>30.055116979754899</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4658,11 +4658,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{28C1EBBF-57C6-4C86-A939-8ADBBB990D7F}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D567B035-F020-450F-9895-3777817DE509}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C007A09A-E6F7-40A5-B673-02A3E27B6F15}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{60432C25-FC3C-40AA-8009-16D25115B88A}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{B76FE965-5A17-45D7-8F93-E5CBA8DDCEC1}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2CAD47E2-2BDA-4D3D-A7C3-C3DD116DE8A5}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{1CF945C8-E746-4ABB-A498-A0666503E278}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{B33272CD-A7C2-4539-B25D-BDAAA1AA2800}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4C1473EF-4214-4E0B-A0EB-1750A74D148C}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C49DE4C8-2999-479E-A487-F04A28C47DB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34769D4-38BA-4CE7-BF99-F51A8A9ACFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1267F46-CAAD-4DEF-8E16-ED69CEA6AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8985B3DF-3AA5-407D-BC29-A8F5A87BDCCD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E4286FB1-457D-4798-A327-013DA555BFB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487AD7DE-FF7B-410F-87CA-2D3662CC60C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043F4CD-F47D-44FD-8CD6-F393BA66D6ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4658,11 +4658,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2CAD47E2-2BDA-4D3D-A7C3-C3DD116DE8A5}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{1CF945C8-E746-4ABB-A498-A0666503E278}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{B33272CD-A7C2-4539-B25D-BDAAA1AA2800}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4C1473EF-4214-4E0B-A0EB-1750A74D148C}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C49DE4C8-2999-479E-A487-F04A28C47DB4}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2E51235D-5FE5-41D5-8C80-AB9C2496C096}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE538331-FFB9-4C6E-A91E-57B0CFDA2870}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{FB4B3978-C754-4D13-8E7C-A3753A4068BD}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BF1C6A56-2FC2-4D16-9700-06D12FC12DEA}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{F386566C-44E9-4872-ADBF-1D805FCEEC0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1267F46-CAAD-4DEF-8E16-ED69CEA6AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{975B80C0-00D0-41A7-BB8D-C6FCC55F268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E4286FB1-457D-4798-A327-013DA555BFB3}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F0EA6C9A-FED6-40FE-AB7E-D78F30B7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (retrieved 28/05/2023), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B043F4CD-F47D-44FD-8CD6-F393BA66D6ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9D9DE6-097C-4B20-A1EC-19716145418D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3463,7 +3463,7 @@
         <v>1278113.76232561</v>
       </c>
       <c r="I67" s="50">
-        <v>62.926791416041297</v>
+        <v>62.926791416041397</v>
       </c>
       <c r="J67" s="51">
         <v>26.160281719162001</v>
@@ -4405,28 +4405,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="50">
-        <v>0.48338120254257</v>
+        <v>0.56318884957869997</v>
       </c>
       <c r="D97" s="50">
-        <v>24.596741065146499</v>
+        <v>26.537375356280499</v>
       </c>
       <c r="E97" s="50">
-        <v>71.168634194175993</v>
+        <v>76.474112224555299</v>
       </c>
       <c r="F97" s="50">
-        <v>0.68896501687022005</v>
+        <v>0.73576110211611001</v>
       </c>
       <c r="G97" s="51">
-        <v>26.607079682088099</v>
+        <v>28.588177796322299</v>
       </c>
       <c r="H97" s="52">
-        <v>643511.49565396295</v>
+        <v>842905.22956505604</v>
       </c>
       <c r="I97" s="50">
-        <v>53.207229588745498</v>
+        <v>57.498311168908401</v>
       </c>
       <c r="J97" s="51">
-        <v>23.819489556748501</v>
+        <v>25.267971338376999</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4437,28 +4437,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="46">
-        <v>4.4335880473894802</v>
+        <v>4.1590685805839298</v>
       </c>
       <c r="D98" s="46">
-        <v>32.152292104944401</v>
+        <v>32.135292849530899</v>
       </c>
       <c r="E98" s="46">
-        <v>91.058509567846201</v>
+        <v>95.525715488116603</v>
       </c>
       <c r="F98" s="46">
-        <v>6.5434534426128099</v>
+        <v>6.8758422491245801</v>
       </c>
       <c r="G98" s="47">
-        <v>45.694194215715001</v>
+        <v>50.900082808909602</v>
       </c>
       <c r="H98" s="48">
-        <v>1660192.9548019799</v>
+        <v>1792876.9873390901</v>
       </c>
       <c r="I98" s="46">
-        <v>75.107079713759106</v>
+        <v>80.413810560134095</v>
       </c>
       <c r="J98" s="47">
-        <v>30.055116979754899</v>
+        <v>29.6264260164983</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4658,11 +4658,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2E51235D-5FE5-41D5-8C80-AB9C2496C096}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE538331-FFB9-4C6E-A91E-57B0CFDA2870}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{FB4B3978-C754-4D13-8E7C-A3753A4068BD}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{BF1C6A56-2FC2-4D16-9700-06D12FC12DEA}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{F386566C-44E9-4872-ADBF-1D805FCEEC0B}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B39F9996-BEF2-403C-801B-0C730CE94375}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{69C46DC1-87DB-42B8-901F-3B8B73F9884E}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0A617761-2D47-4E75-A5D0-EB95B2AA3690}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3CA1004B-5A73-4B04-9911-C00E587E44AE}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{209A7EF2-E869-4A80-BD6F-1A77E0D96BEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{975B80C0-00D0-41A7-BB8D-C6FCC55F268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{253B8C51-898C-4C76-8279-14A3433BB46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F0EA6C9A-FED6-40FE-AB7E-D78F30B7FFBA}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{8E3E676E-2439-46B1-A72C-FE73ACF558AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>Table 11: Communications infrastructure</t>
   </si>
@@ -546,16 +546,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9D9DE6-097C-4B20-A1EC-19716145418D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE9AFD7-8851-4D95-81A4-7575EC8C1201}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C109" s="55"/>
       <c r="D109" s="55"/>
@@ -4597,7 +4600,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C110" s="55"/>
       <c r="D110" s="55"/>
@@ -4609,7 +4612,9 @@
       <c r="J110" s="55"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C111" s="55"/>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
@@ -4621,7 +4626,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="55"/>
       <c r="D112" s="55"/>
@@ -4634,7 +4639,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="55"/>
       <c r="D113" s="55"/>
@@ -4658,13 +4663,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B39F9996-BEF2-403C-801B-0C730CE94375}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{69C46DC1-87DB-42B8-901F-3B8B73F9884E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0A617761-2D47-4E75-A5D0-EB95B2AA3690}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3CA1004B-5A73-4B04-9911-C00E587E44AE}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{209A7EF2-E869-4A80-BD6F-1A77E0D96BEC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B1DB000A-ACC6-4715-8178-D05AF9F76DEA}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C8805774-4EA4-493A-A434-987228F39885}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{5C6BCA1B-06C4-4D89-B990-BA46851BB0FA}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{5A4D02DB-DE4B-42B4-9D70-7BD664F94F02}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{AFB97492-609E-4BDB-B165-A9593B696632}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{16FD2B10-B7D6-439A-8306-7D1A1915F961}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab11.xlsx
+++ b/AfDD_2023_Annex_Table_Tab11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{253B8C51-898C-4C76-8279-14A3433BB46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{907CFA20-2463-4981-B9C9-3BDC580D2AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{8E3E676E-2439-46B1-A72C-FE73ACF558AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{112872D5-329F-45DC-88DC-B156E4D589BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab11'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab11'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE9AFD7-8851-4D95-81A4-7575EC8C1201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B98AFC-15DD-47B1-AB0A-662903804BDD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1340,14 +1340,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.36328125" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.33203125" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1360,7 +1360,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>42.330620000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>46.540019999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>20.128050000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>16.457840000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>17.348590000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>54.700890000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>48.762569999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>29.62567</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>31.997789999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>33.866268241319297</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>16.298079999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>28.949380000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>8.2267499999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>8.0051839999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>25.9636</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>19.668240000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>50.621380000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>32</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>20.0355308870149</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>32.669620000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>55</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>9.9774370000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>50.82938</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>63</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>12.790419999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>65</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>64.126570000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>67</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>12.628209999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>71</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>17.94828</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>4.9471340000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>75</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>77</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>19.938009999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>30.846520000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
         <v>32</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>21.4206268968362</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>82</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>54.571330000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>84</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>36.668050000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>86</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>68.667180000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>88</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>31.663229999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>90</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>47.104289999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>50.508940000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
         <v>32</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>43.896733695831898</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>18.788419999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>97</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>18.44022</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>99</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>101</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>28.312000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>103</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>34.044640000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>105</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>32.587710000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>107</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>20.45448</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>109</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>111</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>20.783860000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>113</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>21.089400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>115</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>9.2337070000000008</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>117</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>31.543589999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>119</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>31.423069999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>121</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>13.556100000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>123</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>20.511690000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>32</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>27.345011031190701</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
         <v>32</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>28.402395358425</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>32</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>52.743707425910401</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="40" t="s">
         <v>32</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>58.188231226302499</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="40" t="s">
         <v>32</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>40.992451796917699</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="40" t="s">
         <v>32</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>48.798104427191902</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="40" t="s">
         <v>32</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>26.160281719162001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
         <v>32</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>30.3552338651597</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="40" t="s">
         <v>32</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>26.147645740404101</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="40" t="s">
         <v>32</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>19.471305824523899</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="40" t="s">
         <v>32</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>27.345011031190701</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="40" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>23.014065908429298</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="40" t="s">
         <v>32</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>25.8336049191537</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>32</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>51.355839804158599</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40" t="s">
         <v>32</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>17.348590000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>32</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>43.783230947781703</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>32</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>63.070998122296203</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>32</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>84.516005493724293</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>80.8652401011216</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>38.195971740035603</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="40" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>63.1429241391047</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
         <v>32</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>27.651120247470399</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40" t="s">
         <v>32</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>51.897279232490902</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="40" t="s">
         <v>32</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>16.642957614965699</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="40" t="s">
         <v>32</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>18.0816824822281</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="40" t="s">
         <v>32</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>35.106482948232802</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="40" t="s">
         <v>32</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>27.5333473524699</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="40" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>50.861088136589899</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="40" t="s">
         <v>32</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>64.608990796111399</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="40" t="s">
         <v>32</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>85.608998063436502</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="40" t="s">
         <v>32</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>17.5372652501012</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="40" t="s">
         <v>32</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>24.115790150398698</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
         <v>32</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>52.338893395915001</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="40" t="s">
         <v>32</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>57.281613711199199</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="40" t="s">
         <v>32</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>16.697953028109399</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="40" t="s">
         <v>32</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>40.562181078157899</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="40" t="s">
         <v>32</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>25.267971338376999</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="40" t="s">
         <v>32</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>29.6264260164983</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="53"/>
       <c r="B99" s="54"/>
       <c r="C99" s="35"/>
@@ -4476,7 +4476,7 @@
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="I100" s="55"/>
       <c r="J100" s="55"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="I101" s="55"/>
       <c r="J101" s="55"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="I102" s="55"/>
       <c r="J102" s="55"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="I103" s="55"/>
       <c r="J103" s="55"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="I104" s="55"/>
       <c r="J104" s="55"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="55"/>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
@@ -4551,7 +4551,7 @@
       <c r="I105" s="55"/>
       <c r="J105" s="55"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="55"/>
       <c r="D106" s="55"/>
       <c r="E106" s="55"/>
@@ -4561,7 +4561,7 @@
       <c r="I106" s="55"/>
       <c r="J106" s="55"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="56" t="s">
         <v>168</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="I107" s="55"/>
       <c r="J107" s="55"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="56"/>
       <c r="C108" s="55"/>
       <c r="D108" s="55"/>
@@ -4585,7 +4585,7 @@
       <c r="I108" s="55"/>
       <c r="J108" s="55"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="I109" s="55"/>
       <c r="J109" s="55"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="I110" s="55"/>
       <c r="J110" s="55"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>173</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="I111" s="55"/>
       <c r="J111" s="55"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="I112" s="55"/>
       <c r="J112" s="55"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>170</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="I113" s="55"/>
       <c r="J113" s="55"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="55"/>
       <c r="D114" s="55"/>
@@ -4663,12 +4663,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B1DB000A-ACC6-4715-8178-D05AF9F76DEA}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C8805774-4EA4-493A-A434-987228F39885}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{5C6BCA1B-06C4-4D89-B990-BA46851BB0FA}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{5A4D02DB-DE4B-42B4-9D70-7BD664F94F02}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{AFB97492-609E-4BDB-B165-A9593B696632}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{16FD2B10-B7D6-439A-8306-7D1A1915F961}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{65C2FA29-AD81-499D-A0A3-271A90986AEB}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6BC92713-CDA0-44BB-B939-3DDEBCCFDD16}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{8262A55C-9CB5-4D59-A779-4577626B2AA7}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{42646700-2EBA-4EDB-BB5F-E7311D53D1C2}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{A36BE392-94BD-4F66-B694-339EF32EA202}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{4F2C58D3-B16B-43B8-91BF-C5E0B70A8FA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
